--- a/错误集.xlsx
+++ b/错误集.xlsx
@@ -2,18 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\study\ros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EB961E-A96D-4270-9EA1-FD7BC982FDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08DEF5F-4354-40A3-BE07-EE0E38F99FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{228D8358-5CA6-451A-9FBC-283C678D8603}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{228D8358-5CA6-451A-9FBC-283C678D8603}"/>
   </bookViews>
   <sheets>
-    <sheet name="astra_camera" sheetId="1" r:id="rId1"/>
+    <sheet name="temp" sheetId="3" r:id="rId1"/>
+    <sheet name="astra_camera" sheetId="1" r:id="rId2"/>
+    <sheet name="boost_signals报错" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>错误描述：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,12 +136,23 @@
     <t>astra直接指向了对应的传感器驱动文件，这样ros就可以访问到了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>解决方案：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45929038/article/details/115425996</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +176,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,18 +203,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -758,6 +788,110 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>374651</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>196851</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>16177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5BAF57-B54E-5421-E635-BAB61E0D6168}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="374651" y="241301"/>
+          <a:ext cx="7747000" cy="2441876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F917E3-7A17-FDA0-9167-D79A58EB368C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="565150" y="584200"/>
+          <a:ext cx="5162550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1059,11 +1193,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F5869E-1EC8-4839-BE43-7169FA4271F1}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52CCF7B9-51FD-4A00-934F-81C57B084D2C}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1161,4 +1323,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A276B2-C1C2-4125-B58D-E9569E23D72E}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F05870-7A06-456F-97DA-81DAA914A875}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>